--- a/Results/Classification/Control vs Atypical/Control 1 (2, 12, 10, 5, 1)/Atypical 0 (0, 7, 12, 8, 11)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Control vs Atypical/Control 1 (2, 12, 10, 5, 1)/Atypical 0 (0, 7, 12, 8, 11)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.3772024444522142</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.3772024444522142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2844685026383136</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.2844685026383136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1150015968607945</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1150015968607945</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2805038260442344</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.2805038260442344</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.3229311287117301</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.3229311287117301</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.682741189405302E-37</v>
+        <v>0.1209910701808021</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.8790089298191979</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.5207864802348897</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.4792135197651103</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.6284622874081224</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.3715377125918776</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5656810708366473</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.4343189291633527</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3966881791516247</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.6033118208483752</v>
       </c>
       <c r="F11">
-        <v>52.1298828125</v>
+        <v>0.6372882127761841</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.2943273681475889</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.2943273681475889</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.148323960251106</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.148323960251106</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.0581789096952187</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0581789096952187</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.1551784346535144</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1551784346535144</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.1927173184966205</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.1927173184966205</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.04929133617776889</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.9507086638222311</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.4792244688257282</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.5207755311742718</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.6876725826132697</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.3123274173867303</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.6367733367425422</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.3632266632574578</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3355887950777749</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.6644112049222251</v>
       </c>
       <c r="F21">
-        <v>55.51047897338867</v>
+        <v>0.6615049839019775</v>
       </c>
       <c r="G21">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
